--- a/biology/Médecine/Anton_Wölfler/Anton_Wölfler.xlsx
+++ b/biology/Médecine/Anton_Wölfler/Anton_Wölfler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anton_W%C3%B6lfler</t>
+          <t>Anton_Wölfler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anton Wölfler est un chirurgien autrichien, né en 1850 au royaume de Bohême et mort en 1917 à Vienne. Il est surtout connu pour ses importantes contributions au développement de la chirurgie de la  thyroïde et de l'appareil digestif.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anton_W%C3%B6lfler</t>
+          <t>Anton_Wölfler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leopold Wölfer, le père d'Anton Wölfer, était médecin. C'était un membre éminent de la communauté juive de Kopec (aujourd'hui Kopetzen), village proche de Kladruby, dans la région de Pilsen, au royaume de Bohême alors intégré à l'empire d'Autriche. Leopold Wölfer eut sa pratique à Kopec pendant plus d'un demi-siècle, il y vécut jusqu'à sa mort, en 1889. C'est là qu'Anton est né, le 12 janvier 1850, et c'est aussi dans sa villa de Kopec qu'il est revenu passer ses vacances, s'y reposant peu, sollicité par les nombreux malades que sa science et sa générosité attiraient de partout[2].
-Après des études secondaires au collège de Pilsen, Wölfler s'inscrit à la faculté de médecine de l'université de Vienne. Il obtient le doctorat en médecine en 1874 et l'habilitation en chirurgie en 1880, sous la direction de Theodor Billroth. En 1876, lorsque Billroth est promu à la direction du service de chirurgie de l'hôpital de Vienne (de), Wölfler devient son assistant. Il le reste jusqu'en 1885, où il est nommé à Graz professeur de chirurgie à la faculté de médecine (de) de l'université Charles-François, dont il dirige également la clinique et dont il est élu doyen pour l'année 1893-1894. En 1896, il prend la succession de Carl Gussenbauer (de) à l'université Charles de Prague. Il y occupe les mêmes fonctions d'enseignement et de direction[3], et il y a pour élève Hermann Schloffer (en), futur inventeur de la chirurgie par la voie transsphénoïdale[4]. Mais en 1910, il tombe gravement malade et doit se retirer.
-Anton Wölfler est mort le 31 janvier 1917 dans l'arrondissement de Hietzing, à Vienne[5], qui n'était plus que pour un an encore capitale de l'Empire austro-hongrois. Ses restes ont été transférés à Prostibor, tout près de Kopetzen, le 24 février 1926 sous la Première République tchécoslovaque.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leopold Wölfer, le père d'Anton Wölfer, était médecin. C'était un membre éminent de la communauté juive de Kopec (aujourd'hui Kopetzen), village proche de Kladruby, dans la région de Pilsen, au royaume de Bohême alors intégré à l'empire d'Autriche. Leopold Wölfer eut sa pratique à Kopec pendant plus d'un demi-siècle, il y vécut jusqu'à sa mort, en 1889. C'est là qu'Anton est né, le 12 janvier 1850, et c'est aussi dans sa villa de Kopec qu'il est revenu passer ses vacances, s'y reposant peu, sollicité par les nombreux malades que sa science et sa générosité attiraient de partout.
+Après des études secondaires au collège de Pilsen, Wölfler s'inscrit à la faculté de médecine de l'université de Vienne. Il obtient le doctorat en médecine en 1874 et l'habilitation en chirurgie en 1880, sous la direction de Theodor Billroth. En 1876, lorsque Billroth est promu à la direction du service de chirurgie de l'hôpital de Vienne (de), Wölfler devient son assistant. Il le reste jusqu'en 1885, où il est nommé à Graz professeur de chirurgie à la faculté de médecine (de) de l'université Charles-François, dont il dirige également la clinique et dont il est élu doyen pour l'année 1893-1894. En 1896, il prend la succession de Carl Gussenbauer (de) à l'université Charles de Prague. Il y occupe les mêmes fonctions d'enseignement et de direction, et il y a pour élève Hermann Schloffer (en), futur inventeur de la chirurgie par la voie transsphénoïdale. Mais en 1910, il tombe gravement malade et doit se retirer.
+Anton Wölfler est mort le 31 janvier 1917 dans l'arrondissement de Hietzing, à Vienne, qui n'était plus que pour un an encore capitale de l'Empire austro-hongrois. Ses restes ont été transférés à Prostibor, tout près de Kopetzen, le 24 février 1926 sous la Première République tchécoslovaque.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anton_W%C3%B6lfler</t>
+          <t>Anton_Wölfler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1878, Wölfler introduit dans le service de Billroth l'asepsie totale dans le traitement des plaies, pratique qu'il a étudiée au cours d'un stage à Édimbourg. En 1880, il décrit le syndrome d'hypocalcémie postopératoire dans un compte rendu complet et détaillé de la tétanie survenue après la première thyroïdectomie totale pratiquée par Billroth[6]. Le 28 septembre 1881, il réussit la première gastro-entérostomie, c'est-à-dire la jonction chirurgicale (anastomose) entre l'estomac et l'intestin grêle, sur un patient atteint d'un carcinome inopérable du pylore[7].
-Wölfler est également l'un des pionniers de l'anesthésie locale par la cocaïne. En 1885, William Halsted vient de publier son étude sur ce procédé[8] et, de passage à Vienne, il en fait la démonstration à Wölfler, qui ne s'amendera que sur le tard de l'indélicatesse de n'avoir pas mentionné Halsted[9] dans le papier enthousiaste qu'il publie après son départ[10].
-Wölfler, surtout connu pour ses recherches sur la glande thyroïde et ses contributions à la chirurgie gastro-intestinale, n'a pas donné moins de cent publications originales, et il faut encore compter parmi les domaines où il a travaillé la chirurgie du rein et celle de la langue[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1878, Wölfler introduit dans le service de Billroth l'asepsie totale dans le traitement des plaies, pratique qu'il a étudiée au cours d'un stage à Édimbourg. En 1880, il décrit le syndrome d'hypocalcémie postopératoire dans un compte rendu complet et détaillé de la tétanie survenue après la première thyroïdectomie totale pratiquée par Billroth. Le 28 septembre 1881, il réussit la première gastro-entérostomie, c'est-à-dire la jonction chirurgicale (anastomose) entre l'estomac et l'intestin grêle, sur un patient atteint d'un carcinome inopérable du pylore.
+Wölfler est également l'un des pionniers de l'anesthésie locale par la cocaïne. En 1885, William Halsted vient de publier son étude sur ce procédé et, de passage à Vienne, il en fait la démonstration à Wölfler, qui ne s'amendera que sur le tard de l'indélicatesse de n'avoir pas mentionné Halsted dans le papier enthousiaste qu'il publie après son départ.
+Wölfler, surtout connu pour ses recherches sur la glande thyroïde et ses contributions à la chirurgie gastro-intestinale, n'a pas donné moins de cent publications originales, et il faut encore compter parmi les domaines où il a travaillé la chirurgie du rein et celle de la langue.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anton_W%C3%B6lfler</t>
+          <t>Anton_Wölfler</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,13 +593,15 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Amas de Wölfler : cellules parafolliculaires interstitielles de la thyroïde groupées en amas[12].
-Opération de Wölfler : gastro-entérostomie[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Amas de Wölfler : cellules parafolliculaires interstitielles de la thyroïde groupées en amas.
+Opération de Wölfler : gastro-entérostomie.
 Suture de Wölfler : suture intestinale dont les points sont noués sur la face interne de la paroi.
 Adénome de Wölfler : variété de goitre nodulaire.
-Procédé de Wölfler : cure radicale des hernies inguinales[14],[15].</t>
+Procédé de Wölfler : cure radicale des hernies inguinales,.</t>
         </is>
       </c>
     </row>
